--- a/data/pca/factorExposure/factorExposure_2009-06-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-06-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01677049294740889</v>
+        <v>0.01646711376077594</v>
       </c>
       <c r="C2">
-        <v>0.0014301858861212</v>
+        <v>-0.001062522375692034</v>
       </c>
       <c r="D2">
-        <v>0.008797691374752441</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.009089454002243065</v>
+      </c>
+      <c r="E2">
+        <v>0.001440122335496967</v>
+      </c>
+      <c r="F2">
+        <v>-0.01211699669269857</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.09079297055934946</v>
+        <v>0.09183640159758183</v>
       </c>
       <c r="C4">
-        <v>0.01964007188961416</v>
+        <v>-0.01478066369724711</v>
       </c>
       <c r="D4">
-        <v>0.07757893176393081</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08194178496097489</v>
+      </c>
+      <c r="E4">
+        <v>0.02648724916618735</v>
+      </c>
+      <c r="F4">
+        <v>0.0313735988781098</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>6.147867274122193e-06</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-1.203871207632559e-07</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>3.01870819332854e-06</v>
+      </c>
+      <c r="E5">
+        <v>-2.374045719773772e-05</v>
+      </c>
+      <c r="F5">
+        <v>-0.0001042158983900346</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1531246334444871</v>
+        <v>0.1616610976545541</v>
       </c>
       <c r="C6">
-        <v>0.0295047578238836</v>
+        <v>-0.02894786511663232</v>
       </c>
       <c r="D6">
-        <v>-0.03761254420418215</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02625129463861185</v>
+      </c>
+      <c r="E6">
+        <v>0.01051595176078601</v>
+      </c>
+      <c r="F6">
+        <v>0.04039646707664907</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.05949449207704782</v>
+        <v>0.06186257844042337</v>
       </c>
       <c r="C7">
-        <v>0.001719370387326524</v>
+        <v>0.001565498312530067</v>
       </c>
       <c r="D7">
-        <v>0.04832982945436027</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05292979020669649</v>
+      </c>
+      <c r="E7">
+        <v>0.01290030745337686</v>
+      </c>
+      <c r="F7">
+        <v>0.04947086560582385</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06179289872923314</v>
+        <v>0.0573198591419594</v>
       </c>
       <c r="C8">
-        <v>-0.01037264192927059</v>
+        <v>0.01231607957127449</v>
       </c>
       <c r="D8">
-        <v>0.02653050502271088</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03128226139136611</v>
+      </c>
+      <c r="E8">
+        <v>0.01774763208046936</v>
+      </c>
+      <c r="F8">
+        <v>-0.02694740444523728</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.07014160732111063</v>
+        <v>0.07123937078850835</v>
       </c>
       <c r="C9">
-        <v>0.01583296480815456</v>
+        <v>-0.01049292956851416</v>
       </c>
       <c r="D9">
-        <v>0.0777448372146156</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08471851309975179</v>
+      </c>
+      <c r="E9">
+        <v>0.0235760556862254</v>
+      </c>
+      <c r="F9">
+        <v>0.04806878701840779</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.08505548263441591</v>
+        <v>0.08698188878907835</v>
       </c>
       <c r="C10">
-        <v>0.01493910649218038</v>
+        <v>-0.02150569813977567</v>
       </c>
       <c r="D10">
-        <v>-0.1673205909127525</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1602023649643741</v>
+      </c>
+      <c r="E10">
+        <v>-0.03378627528019856</v>
+      </c>
+      <c r="F10">
+        <v>-0.05784594341935635</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.091017697043276</v>
+        <v>0.08764721331893946</v>
       </c>
       <c r="C11">
-        <v>0.01706227961351133</v>
+        <v>-0.01155704525201861</v>
       </c>
       <c r="D11">
-        <v>0.1097410699347892</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1171233779842602</v>
+      </c>
+      <c r="E11">
+        <v>0.04761063844857383</v>
+      </c>
+      <c r="F11">
+        <v>0.0246945583586781</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09584094252183221</v>
+        <v>0.09026496099123707</v>
       </c>
       <c r="C12">
-        <v>0.01522819123942653</v>
+        <v>-0.008851026156223449</v>
       </c>
       <c r="D12">
-        <v>0.1163610715597017</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1317905444443613</v>
+      </c>
+      <c r="E12">
+        <v>0.04729422726525671</v>
+      </c>
+      <c r="F12">
+        <v>0.03148363201238835</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04476554198799557</v>
+        <v>0.04399241435415626</v>
       </c>
       <c r="C13">
-        <v>0.006463882835220204</v>
+        <v>-0.002791167740949833</v>
       </c>
       <c r="D13">
-        <v>0.04488641166639003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05384856456509662</v>
+      </c>
+      <c r="E13">
+        <v>-1.436705949791104e-05</v>
+      </c>
+      <c r="F13">
+        <v>0.004670899467364485</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01949897754033205</v>
+        <v>0.02359841673340769</v>
       </c>
       <c r="C14">
-        <v>0.01518897665726108</v>
+        <v>-0.01376917887354966</v>
       </c>
       <c r="D14">
-        <v>0.02912010159346141</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03220867511230163</v>
+      </c>
+      <c r="E14">
+        <v>0.01813488451017238</v>
+      </c>
+      <c r="F14">
+        <v>0.01164224401918852</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03392000570921496</v>
+        <v>0.03386768073278536</v>
       </c>
       <c r="C15">
-        <v>0.007493641016237406</v>
+        <v>-0.005393738715244514</v>
       </c>
       <c r="D15">
-        <v>0.04412213703235805</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.0466233390400441</v>
+      </c>
+      <c r="E15">
+        <v>0.007990926557439491</v>
+      </c>
+      <c r="F15">
+        <v>0.02930176255997976</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07451403410914566</v>
+        <v>0.07243827295549443</v>
       </c>
       <c r="C16">
-        <v>0.007533416868926016</v>
+        <v>-0.001656261985119653</v>
       </c>
       <c r="D16">
-        <v>0.1142765015174226</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.127993457767189</v>
+      </c>
+      <c r="E16">
+        <v>0.06173981038904983</v>
+      </c>
+      <c r="F16">
+        <v>0.02759066245348445</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.0006883711344247116</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0004316367581080043</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.002236451959587445</v>
+      </c>
+      <c r="E17">
+        <v>0.001561440700115778</v>
+      </c>
+      <c r="F17">
+        <v>-0.002670137010644448</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.02317208535937742</v>
+        <v>0.04079240768413649</v>
       </c>
       <c r="C18">
-        <v>-0.002418624128823318</v>
+        <v>0.002549186353887321</v>
       </c>
       <c r="D18">
-        <v>0.02416150247203346</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01567106021582558</v>
+      </c>
+      <c r="E18">
+        <v>-0.005895142449384558</v>
+      </c>
+      <c r="F18">
+        <v>-0.009635974802457526</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06351754768925973</v>
+        <v>0.06225307538527528</v>
       </c>
       <c r="C20">
-        <v>0.005391938273814932</v>
+        <v>-0.001122203248722831</v>
       </c>
       <c r="D20">
-        <v>0.06940045130838289</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.0785960489031924</v>
+      </c>
+      <c r="E20">
+        <v>0.05756238357007732</v>
+      </c>
+      <c r="F20">
+        <v>0.02932217203477248</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.03895968443049074</v>
+        <v>0.04048204950186027</v>
       </c>
       <c r="C21">
-        <v>0.009388913322828386</v>
+        <v>-0.006379356074630004</v>
       </c>
       <c r="D21">
-        <v>0.03389567397459258</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03638390865943698</v>
+      </c>
+      <c r="E21">
+        <v>-0.002753466365471972</v>
+      </c>
+      <c r="F21">
+        <v>-0.02502431910296109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04083329687790301</v>
+        <v>0.04431221915807061</v>
       </c>
       <c r="C22">
-        <v>0.001963642524301846</v>
+        <v>-0.001033023312767011</v>
       </c>
       <c r="D22">
-        <v>-0.001954414027964705</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.006800057425358818</v>
+      </c>
+      <c r="E22">
+        <v>0.03732891763507735</v>
+      </c>
+      <c r="F22">
+        <v>-0.04644249977148614</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.0407959632950473</v>
+        <v>0.04428792385372893</v>
       </c>
       <c r="C23">
-        <v>0.001953046761072816</v>
+        <v>-0.001023818543799425</v>
       </c>
       <c r="D23">
-        <v>-0.001930707380999338</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.006814130501784056</v>
+      </c>
+      <c r="E23">
+        <v>0.03751156050281202</v>
+      </c>
+      <c r="F23">
+        <v>-0.04641514625372447</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08204749159315265</v>
+        <v>0.07825513147118435</v>
       </c>
       <c r="C24">
-        <v>0.008139647820065059</v>
+        <v>-0.002487397988270534</v>
       </c>
       <c r="D24">
-        <v>0.1144811495662819</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1200202638893889</v>
+      </c>
+      <c r="E24">
+        <v>0.04935178023043206</v>
+      </c>
+      <c r="F24">
+        <v>0.03017200893826525</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08670319805076415</v>
+        <v>0.08339338957228971</v>
       </c>
       <c r="C25">
-        <v>0.01036190614245116</v>
+        <v>-0.005238915020299287</v>
       </c>
       <c r="D25">
-        <v>0.1018274654037604</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1093437972602209</v>
+      </c>
+      <c r="E25">
+        <v>0.03266320917318584</v>
+      </c>
+      <c r="F25">
+        <v>0.02773324992404131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05756706860559958</v>
+        <v>0.05975023978404785</v>
       </c>
       <c r="C26">
-        <v>0.01796641375028435</v>
+        <v>-0.01456394341167928</v>
       </c>
       <c r="D26">
-        <v>0.03107594933135022</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04346786657119817</v>
+      </c>
+      <c r="E26">
+        <v>0.02907512780263192</v>
+      </c>
+      <c r="F26">
+        <v>-0.008162883824020542</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1333792056090684</v>
+        <v>0.1419124656903306</v>
       </c>
       <c r="C28">
-        <v>0.01357301782647657</v>
+        <v>-0.02315643545792674</v>
       </c>
       <c r="D28">
-        <v>-0.265919851742486</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2605024230339113</v>
+      </c>
+      <c r="E28">
+        <v>-0.06890923406706623</v>
+      </c>
+      <c r="F28">
+        <v>0.004404477322657627</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02564113216112147</v>
+        <v>0.0285892689314554</v>
       </c>
       <c r="C29">
-        <v>0.009793464454095234</v>
+        <v>-0.008938241113401866</v>
       </c>
       <c r="D29">
-        <v>0.02818129366300596</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.02997525575218182</v>
+      </c>
+      <c r="E29">
+        <v>0.01280135529581586</v>
+      </c>
+      <c r="F29">
+        <v>-0.01366392293645696</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.06126612948819855</v>
+        <v>0.05823998164487933</v>
       </c>
       <c r="C30">
-        <v>0.008533335747522498</v>
+        <v>-0.00283522009307756</v>
       </c>
       <c r="D30">
-        <v>0.0762434040967173</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08751405383602796</v>
+      </c>
+      <c r="E30">
+        <v>0.01440584407965096</v>
+      </c>
+      <c r="F30">
+        <v>0.07869671381914629</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.0511165306103524</v>
+        <v>0.0516411092584489</v>
       </c>
       <c r="C31">
-        <v>0.01744642065269941</v>
+        <v>-0.01625299143591587</v>
       </c>
       <c r="D31">
-        <v>0.02124479019476749</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02422953613131109</v>
+      </c>
+      <c r="E31">
+        <v>0.02845184685499251</v>
+      </c>
+      <c r="F31">
+        <v>-0.0003928699974039734</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04900162909349563</v>
+        <v>0.05253890291795355</v>
       </c>
       <c r="C32">
-        <v>0.002521026878894838</v>
+        <v>0.00127645677452706</v>
       </c>
       <c r="D32">
-        <v>0.02620017975956527</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03384646607041553</v>
+      </c>
+      <c r="E32">
+        <v>0.03338979577426828</v>
+      </c>
+      <c r="F32">
+        <v>0.003004795127520987</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09061325877664023</v>
+        <v>0.08958878931258606</v>
       </c>
       <c r="C33">
-        <v>0.01325278748891465</v>
+        <v>-0.007347169870360647</v>
       </c>
       <c r="D33">
-        <v>0.08828036392956265</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1032988018610672</v>
+      </c>
+      <c r="E33">
+        <v>0.04709628907536352</v>
+      </c>
+      <c r="F33">
+        <v>0.04286392468454417</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06911512832413497</v>
+        <v>0.06732952253796205</v>
       </c>
       <c r="C34">
-        <v>0.01561097636838088</v>
+        <v>-0.010683463401949</v>
       </c>
       <c r="D34">
-        <v>0.09564573906082001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1083739070349039</v>
+      </c>
+      <c r="E34">
+        <v>0.03522929576411668</v>
+      </c>
+      <c r="F34">
+        <v>0.03503890721198574</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02534794348809444</v>
+        <v>0.02670943047588282</v>
       </c>
       <c r="C35">
-        <v>0.003703806474764129</v>
+        <v>-0.003160869913828977</v>
       </c>
       <c r="D35">
-        <v>0.008171634906977662</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01203955618413921</v>
+      </c>
+      <c r="E35">
+        <v>0.01261632741330425</v>
+      </c>
+      <c r="F35">
+        <v>0.0007422880179410573</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02456634122269125</v>
+        <v>0.02805208522842484</v>
       </c>
       <c r="C36">
-        <v>0.008037017407220553</v>
+        <v>-0.006921399866266775</v>
       </c>
       <c r="D36">
-        <v>0.03874392634583195</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03916619456001821</v>
+      </c>
+      <c r="E36">
+        <v>0.01731707742744518</v>
+      </c>
+      <c r="F36">
+        <v>0.01358125408697713</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.001448633208377693</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0008347787512691462</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.003050688736900567</v>
+      </c>
+      <c r="E37">
+        <v>0.0001792888623946961</v>
+      </c>
+      <c r="F37">
+        <v>-0.001785310886871489</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1120060326502892</v>
+        <v>0.1011184102837599</v>
       </c>
       <c r="C39">
-        <v>0.02319206370039289</v>
+        <v>-0.01651526424604094</v>
       </c>
       <c r="D39">
-        <v>0.1462695030764244</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1504072523545551</v>
+      </c>
+      <c r="E39">
+        <v>0.05932296329743632</v>
+      </c>
+      <c r="F39">
+        <v>0.0215638257929857</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.03839560501942165</v>
+        <v>0.04358012382523426</v>
       </c>
       <c r="C40">
-        <v>0.009277284132338966</v>
+        <v>-0.00779081263359173</v>
       </c>
       <c r="D40">
-        <v>0.02366215604610639</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03261578016515593</v>
+      </c>
+      <c r="E40">
+        <v>0.001780016876945166</v>
+      </c>
+      <c r="F40">
+        <v>-0.01547585617308798</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02483217117230689</v>
+        <v>0.02681052393119425</v>
       </c>
       <c r="C41">
-        <v>0.007238039249257681</v>
+        <v>-0.006782652895213378</v>
       </c>
       <c r="D41">
-        <v>0.008882267260018763</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01055237608963163</v>
+      </c>
+      <c r="E41">
+        <v>0.01137614898798884</v>
+      </c>
+      <c r="F41">
+        <v>-0.007208509121265459</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04170954186458434</v>
+        <v>0.03986596574191247</v>
       </c>
       <c r="C43">
-        <v>0.008266887074584344</v>
+        <v>-0.007670901568148785</v>
       </c>
       <c r="D43">
-        <v>0.01739364935245614</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01914660168647643</v>
+      </c>
+      <c r="E43">
+        <v>0.02511594754164184</v>
+      </c>
+      <c r="F43">
+        <v>-0.01610204459683287</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.06939661714597013</v>
+        <v>0.07811435170969999</v>
       </c>
       <c r="C44">
-        <v>0.02442271060210423</v>
+        <v>-0.01982571847834089</v>
       </c>
       <c r="D44">
-        <v>0.09698270087479052</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09654348054795232</v>
+      </c>
+      <c r="E44">
+        <v>0.06249957116835414</v>
+      </c>
+      <c r="F44">
+        <v>0.167801799425821</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02143187043542733</v>
+        <v>0.02462551930669574</v>
       </c>
       <c r="C46">
-        <v>0.004493252327487487</v>
+        <v>-0.003694341788167972</v>
       </c>
       <c r="D46">
-        <v>0.009693140850648978</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.0125510196986607</v>
+      </c>
+      <c r="E46">
+        <v>0.02669815026639481</v>
+      </c>
+      <c r="F46">
+        <v>-0.005489635784835532</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05241712268387835</v>
+        <v>0.05197851457736231</v>
       </c>
       <c r="C47">
-        <v>0.005172132957971712</v>
+        <v>-0.004461891249401139</v>
       </c>
       <c r="D47">
-        <v>0.006214048374076319</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01066054595735082</v>
+      </c>
+      <c r="E47">
+        <v>0.02253887160277257</v>
+      </c>
+      <c r="F47">
+        <v>-0.03191152286800072</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04843740419701941</v>
+        <v>0.05108564971424526</v>
       </c>
       <c r="C48">
-        <v>0.0050883417969112</v>
+        <v>-0.00239026873874672</v>
       </c>
       <c r="D48">
-        <v>0.04645190457024414</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.0501077908724039</v>
+      </c>
+      <c r="E48">
+        <v>-0.004413614383952259</v>
+      </c>
+      <c r="F48">
+        <v>0.01240046330304147</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.1992625719118062</v>
+        <v>0.2005037899682239</v>
       </c>
       <c r="C49">
-        <v>0.02227388455705079</v>
+        <v>-0.02097705013697853</v>
       </c>
       <c r="D49">
-        <v>-0.01380393611996836</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.004858685172252048</v>
+      </c>
+      <c r="E49">
+        <v>0.03377378490275949</v>
+      </c>
+      <c r="F49">
+        <v>0.04877407841021713</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04932164422879522</v>
+        <v>0.05149007578658857</v>
       </c>
       <c r="C50">
-        <v>0.01308707077779765</v>
+        <v>-0.01182153108656278</v>
       </c>
       <c r="D50">
-        <v>0.02063600942168569</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02327556158896858</v>
+      </c>
+      <c r="E50">
+        <v>0.02984919810567396</v>
+      </c>
+      <c r="F50">
+        <v>0.009296457214509286</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1558878218098251</v>
+        <v>0.1491121605130734</v>
       </c>
       <c r="C52">
-        <v>0.02107508575178242</v>
+        <v>-0.01936330250462701</v>
       </c>
       <c r="D52">
-        <v>0.04243528036213438</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04251428318902274</v>
+      </c>
+      <c r="E52">
+        <v>0.02330699099306442</v>
+      </c>
+      <c r="F52">
+        <v>0.04168564776449251</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.17463324456011</v>
+        <v>0.1693448027158851</v>
       </c>
       <c r="C53">
-        <v>0.02178354866027649</v>
+        <v>-0.02230169617220836</v>
       </c>
       <c r="D53">
-        <v>0.007422392526566552</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.005931782245623878</v>
+      </c>
+      <c r="E53">
+        <v>0.03099245593889128</v>
+      </c>
+      <c r="F53">
+        <v>0.07474488715013364</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01781505379203631</v>
+        <v>0.01957834847197292</v>
       </c>
       <c r="C54">
-        <v>0.01225343855131137</v>
+        <v>-0.01089251821206511</v>
       </c>
       <c r="D54">
-        <v>0.03079617771573417</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03177110610946733</v>
+      </c>
+      <c r="E54">
+        <v>0.02027412063536065</v>
+      </c>
+      <c r="F54">
+        <v>-0.002134862388832118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1175347100897894</v>
+        <v>0.1160511329041648</v>
       </c>
       <c r="C55">
-        <v>0.01915218086059045</v>
+        <v>-0.01933160372977146</v>
       </c>
       <c r="D55">
-        <v>0.004777857296206303</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.008095216296579754</v>
+      </c>
+      <c r="E55">
+        <v>0.02598655386159933</v>
+      </c>
+      <c r="F55">
+        <v>0.04653393845523134</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1805083650685755</v>
+        <v>0.1757616066877648</v>
       </c>
       <c r="C56">
-        <v>0.019614451949648</v>
+        <v>-0.02035502147416896</v>
       </c>
       <c r="D56">
-        <v>-0.006174001246230775</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.003058490534286519</v>
+      </c>
+      <c r="E56">
+        <v>0.0328701946955525</v>
+      </c>
+      <c r="F56">
+        <v>0.05484815708022956</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04808527249824671</v>
+        <v>0.04623706297354873</v>
       </c>
       <c r="C58">
-        <v>0.00534088565574342</v>
+        <v>-0.000311127597453996</v>
       </c>
       <c r="D58">
-        <v>0.06441912333992718</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07648961087518874</v>
+      </c>
+      <c r="E58">
+        <v>0.03701948848889972</v>
+      </c>
+      <c r="F58">
+        <v>-0.03812865568066375</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1607273013151924</v>
+        <v>0.1670318930308236</v>
       </c>
       <c r="C59">
-        <v>0.01535406411023573</v>
+        <v>-0.02362145018456063</v>
       </c>
       <c r="D59">
-        <v>-0.2254507633800294</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2184255809402425</v>
+      </c>
+      <c r="E59">
+        <v>-0.05054898429550553</v>
+      </c>
+      <c r="F59">
+        <v>-0.03812408427456172</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2391936271338553</v>
+        <v>0.2307108148538492</v>
       </c>
       <c r="C60">
-        <v>0.00362137989083991</v>
+        <v>-0.00105225981271481</v>
       </c>
       <c r="D60">
-        <v>0.03727825576248282</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03914742436975741</v>
+      </c>
+      <c r="E60">
+        <v>0.007211995134839355</v>
+      </c>
+      <c r="F60">
+        <v>0.005944613577442995</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.08337911573126325</v>
+        <v>0.0765275531878588</v>
       </c>
       <c r="C61">
-        <v>0.01718534127737354</v>
+        <v>-0.01158143432665449</v>
       </c>
       <c r="D61">
-        <v>0.1080365751458648</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1151163907409875</v>
+      </c>
+      <c r="E61">
+        <v>0.0373689739391596</v>
+      </c>
+      <c r="F61">
+        <v>0.008269867392316428</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1725649188474392</v>
+        <v>0.1690827477618097</v>
       </c>
       <c r="C62">
-        <v>0.02353646029323487</v>
+        <v>-0.0231665356303714</v>
       </c>
       <c r="D62">
-        <v>0.0002449213470028916</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.006076735359570542</v>
+      </c>
+      <c r="E62">
+        <v>0.03479407313231046</v>
+      </c>
+      <c r="F62">
+        <v>0.04092836847293128</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04141027080812631</v>
+        <v>0.04552302285989982</v>
       </c>
       <c r="C63">
-        <v>0.005486970476551089</v>
+        <v>-0.001834756142840739</v>
       </c>
       <c r="D63">
-        <v>0.0469034238595567</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05974477268161588</v>
+      </c>
+      <c r="E63">
+        <v>0.02370037469448827</v>
+      </c>
+      <c r="F63">
+        <v>0.0004403964408687214</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1136340203257863</v>
+        <v>0.1112728476294205</v>
       </c>
       <c r="C64">
-        <v>0.0161847134286432</v>
+        <v>-0.01316323354767821</v>
       </c>
       <c r="D64">
-        <v>0.03252562423466077</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04207279436545994</v>
+      </c>
+      <c r="E64">
+        <v>0.02407177225328418</v>
+      </c>
+      <c r="F64">
+        <v>0.02628973340181495</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1449220250631406</v>
+        <v>0.1519549652743721</v>
       </c>
       <c r="C65">
-        <v>0.03563803941196116</v>
+        <v>-0.03604498961968571</v>
       </c>
       <c r="D65">
-        <v>-0.05852941466268831</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04574408007253201</v>
+      </c>
+      <c r="E65">
+        <v>0.00799785250914308</v>
+      </c>
+      <c r="F65">
+        <v>0.03724648021318278</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1354809308423825</v>
+        <v>0.1218561863610649</v>
       </c>
       <c r="C66">
-        <v>0.02182442930502485</v>
+        <v>-0.01510259752655725</v>
       </c>
       <c r="D66">
-        <v>0.1284420751031474</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1394174019342833</v>
+      </c>
+      <c r="E66">
+        <v>0.06510463830941275</v>
+      </c>
+      <c r="F66">
+        <v>0.02659880770447543</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06298022612416511</v>
+        <v>0.05590011089502714</v>
       </c>
       <c r="C67">
-        <v>0.005980322438992921</v>
+        <v>-0.003684457107742301</v>
       </c>
       <c r="D67">
-        <v>0.05301351824499975</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05755920627264211</v>
+      </c>
+      <c r="E67">
+        <v>0.01894120349786605</v>
+      </c>
+      <c r="F67">
+        <v>-0.03404681192637721</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1064550809943906</v>
+        <v>0.1165599643590431</v>
       </c>
       <c r="C68">
-        <v>0.02371024188649048</v>
+        <v>-0.03390936821362479</v>
       </c>
       <c r="D68">
-        <v>-0.263561235081344</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2608940396502033</v>
+      </c>
+      <c r="E68">
+        <v>-0.08955835523125097</v>
+      </c>
+      <c r="F68">
+        <v>0.0008640015176493335</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03937749292606375</v>
+        <v>0.03828602048949123</v>
       </c>
       <c r="C69">
-        <v>0.002302729767754462</v>
+        <v>-0.001393342710870277</v>
       </c>
       <c r="D69">
-        <v>0.005927112137455714</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008281889374953473</v>
+      </c>
+      <c r="E69">
+        <v>0.02394383699733014</v>
+      </c>
+      <c r="F69">
+        <v>-5.784816222876434e-05</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06662915110792031</v>
+        <v>0.06749932953086206</v>
       </c>
       <c r="C70">
-        <v>-0.0239570349868525</v>
+        <v>0.0264427363388115</v>
       </c>
       <c r="D70">
-        <v>0.01762342261667846</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.0252958954211995</v>
+      </c>
+      <c r="E70">
+        <v>-0.03049731737242669</v>
+      </c>
+      <c r="F70">
+        <v>-0.1810826545063758</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1251484376349039</v>
+        <v>0.136532755102957</v>
       </c>
       <c r="C71">
-        <v>0.02823445739156385</v>
+        <v>-0.03856195582091781</v>
       </c>
       <c r="D71">
-        <v>-0.2805025069771431</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2708738381288048</v>
+      </c>
+      <c r="E71">
+        <v>-0.09885378438919069</v>
+      </c>
+      <c r="F71">
+        <v>0.006600521277448488</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1380347113464698</v>
+        <v>0.1441262891880155</v>
       </c>
       <c r="C72">
-        <v>0.02833912156320592</v>
+        <v>-0.02890521429450275</v>
       </c>
       <c r="D72">
-        <v>0.001796295202221729</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.003739815234064205</v>
+      </c>
+      <c r="E72">
+        <v>0.03926564319767831</v>
+      </c>
+      <c r="F72">
+        <v>0.02681571263864207</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2045189112877271</v>
+        <v>0.2043698783136962</v>
       </c>
       <c r="C73">
-        <v>0.01755548661326872</v>
+        <v>-0.01415816845056369</v>
       </c>
       <c r="D73">
-        <v>0.006377938560577483</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01766655236274634</v>
+      </c>
+      <c r="E73">
+        <v>0.0671557644886235</v>
+      </c>
+      <c r="F73">
+        <v>0.04440338702632141</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.0926746383850196</v>
+        <v>0.09380876569310352</v>
       </c>
       <c r="C74">
-        <v>0.01471599286422575</v>
+        <v>-0.01430017204644491</v>
       </c>
       <c r="D74">
-        <v>0.01504486698843656</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01713118359519976</v>
+      </c>
+      <c r="E74">
+        <v>0.04431894538905411</v>
+      </c>
+      <c r="F74">
+        <v>0.05232639453669204</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.133800783360581</v>
+        <v>0.126311864918046</v>
       </c>
       <c r="C75">
-        <v>0.03156633416945311</v>
+        <v>-0.03011382699402593</v>
       </c>
       <c r="D75">
-        <v>0.02293806526618884</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02896404151692442</v>
+      </c>
+      <c r="E75">
+        <v>0.05718868022051016</v>
+      </c>
+      <c r="F75">
+        <v>0.02144367111381638</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.08265036518625121</v>
+        <v>0.09236814630206687</v>
       </c>
       <c r="C77">
-        <v>0.01491289025112477</v>
+        <v>-0.00890984352603115</v>
       </c>
       <c r="D77">
-        <v>0.1063974401654668</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1156630441411304</v>
+      </c>
+      <c r="E77">
+        <v>0.04820062276372072</v>
+      </c>
+      <c r="F77">
+        <v>0.03486614049031707</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.09998441599357492</v>
+        <v>0.1005424546069852</v>
       </c>
       <c r="C78">
-        <v>0.04387928474182497</v>
+        <v>-0.03939299786121596</v>
       </c>
       <c r="D78">
-        <v>0.1099585729765678</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.110182535484893</v>
+      </c>
+      <c r="E78">
+        <v>0.07534475769859353</v>
+      </c>
+      <c r="F78">
+        <v>0.0539791737100359</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1662637413649652</v>
+        <v>0.1632293361619544</v>
       </c>
       <c r="C79">
-        <v>0.02629282240128225</v>
+        <v>-0.02544701482629004</v>
       </c>
       <c r="D79">
-        <v>0.007087224161709536</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01195745560714286</v>
+      </c>
+      <c r="E79">
+        <v>0.04413139836146169</v>
+      </c>
+      <c r="F79">
+        <v>0.01263034209305792</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08095755255862593</v>
+        <v>0.07957789643356074</v>
       </c>
       <c r="C80">
-        <v>0.00198019707474508</v>
+        <v>0.0003037019912107736</v>
       </c>
       <c r="D80">
-        <v>0.05437267080762336</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05365392156461427</v>
+      </c>
+      <c r="E80">
+        <v>0.03290900004388606</v>
+      </c>
+      <c r="F80">
+        <v>-0.02637347500288103</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1210383397135247</v>
+        <v>0.1166400848965816</v>
       </c>
       <c r="C81">
-        <v>0.03364653222273234</v>
+        <v>-0.03353745195261667</v>
       </c>
       <c r="D81">
-        <v>0.008120585517616345</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01253131479462245</v>
+      </c>
+      <c r="E81">
+        <v>0.05395884141039314</v>
+      </c>
+      <c r="F81">
+        <v>0.01788017629984714</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1664301393527742</v>
+        <v>0.1653910772418716</v>
       </c>
       <c r="C82">
-        <v>0.02695500211610307</v>
+        <v>-0.02783032869096119</v>
       </c>
       <c r="D82">
-        <v>0.005613390123226025</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.002934943277372871</v>
+      </c>
+      <c r="E82">
+        <v>0.02897776694209991</v>
+      </c>
+      <c r="F82">
+        <v>0.08232324485022308</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.06400887698967418</v>
+        <v>0.05788292916115041</v>
       </c>
       <c r="C83">
-        <v>0.006153233113574444</v>
+        <v>-0.003694165519310353</v>
       </c>
       <c r="D83">
-        <v>0.04376693229038707</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04769869069104904</v>
+      </c>
+      <c r="E83">
+        <v>0.00180332596761429</v>
+      </c>
+      <c r="F83">
+        <v>-0.03689138393489236</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.06223142515950648</v>
+        <v>0.05635799139234</v>
       </c>
       <c r="C84">
-        <v>0.01377827761588634</v>
+        <v>-0.011129339574917</v>
       </c>
       <c r="D84">
-        <v>0.06940248008414518</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.0718449109132399</v>
+      </c>
+      <c r="E84">
+        <v>0.01399883706918703</v>
+      </c>
+      <c r="F84">
+        <v>0.0156288723610258</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1393878703926788</v>
+        <v>0.1348025662642942</v>
       </c>
       <c r="C85">
-        <v>0.03035189696404763</v>
+        <v>-0.03020523646136793</v>
       </c>
       <c r="D85">
-        <v>0.007729758168852684</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.00953400592846956</v>
+      </c>
+      <c r="E85">
+        <v>0.03685194127883871</v>
+      </c>
+      <c r="F85">
+        <v>0.04749151640073872</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1021790444203105</v>
+        <v>0.09360226869849105</v>
       </c>
       <c r="C86">
-        <v>-0.002445780713691293</v>
+        <v>0.00513543600017362</v>
       </c>
       <c r="D86">
-        <v>0.01081781167055505</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05071245611745509</v>
+      </c>
+      <c r="E86">
+        <v>0.2217681143588831</v>
+      </c>
+      <c r="F86">
+        <v>-0.8991915982495726</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.09604261543305069</v>
+        <v>0.09225819009793243</v>
       </c>
       <c r="C87">
-        <v>0.02807690620382257</v>
+        <v>-0.01989974994711356</v>
       </c>
       <c r="D87">
-        <v>0.07517508005666426</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09559447569450943</v>
+      </c>
+      <c r="E87">
+        <v>-0.05214758726722745</v>
+      </c>
+      <c r="F87">
+        <v>0.04950715960881455</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06223935072959959</v>
+        <v>0.06089107366367624</v>
       </c>
       <c r="C88">
-        <v>0.005337916860402006</v>
+        <v>-0.002715519763923803</v>
       </c>
       <c r="D88">
-        <v>0.05113864339000324</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04990775660427667</v>
+      </c>
+      <c r="E88">
+        <v>0.02445124642731169</v>
+      </c>
+      <c r="F88">
+        <v>0.01399722972715256</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1164098642204328</v>
+        <v>0.1259836207730761</v>
       </c>
       <c r="C89">
-        <v>0.004859917148485885</v>
+        <v>-0.01385903640177509</v>
       </c>
       <c r="D89">
-        <v>-0.2447603243236591</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2429961779726713</v>
+      </c>
+      <c r="E89">
+        <v>-0.09321350159988918</v>
+      </c>
+      <c r="F89">
+        <v>-0.007431256784052869</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1380603137481578</v>
+        <v>0.1519991690947639</v>
       </c>
       <c r="C90">
-        <v>0.02433734603721728</v>
+        <v>-0.03531330531572516</v>
       </c>
       <c r="D90">
-        <v>-0.264100664824077</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2682316897016018</v>
+      </c>
+      <c r="E90">
+        <v>-0.1147316922060581</v>
+      </c>
+      <c r="F90">
+        <v>-0.00835262327502747</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1214358016804263</v>
+        <v>0.120281705545709</v>
       </c>
       <c r="C91">
-        <v>0.02114840989582353</v>
+        <v>-0.02172412825650164</v>
       </c>
       <c r="D91">
-        <v>-0.02038408903343229</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01709108222131043</v>
+      </c>
+      <c r="E91">
+        <v>0.05367096787093652</v>
+      </c>
+      <c r="F91">
+        <v>-0.001832455607275314</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1377317522375562</v>
+        <v>0.145084386248649</v>
       </c>
       <c r="C92">
-        <v>0.01503614066192303</v>
+        <v>-0.02632203175419816</v>
       </c>
       <c r="D92">
-        <v>-0.2972348221445539</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2948119278224847</v>
+      </c>
+      <c r="E92">
+        <v>-0.1051301943839015</v>
+      </c>
+      <c r="F92">
+        <v>-0.01714067652749847</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1405230835920822</v>
+        <v>0.1527289618072583</v>
       </c>
       <c r="C93">
-        <v>0.02072091290331209</v>
+        <v>-0.03042358657155538</v>
       </c>
       <c r="D93">
-        <v>-0.266561677925655</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2646503868696325</v>
+      </c>
+      <c r="E93">
+        <v>-0.07761510666816065</v>
+      </c>
+      <c r="F93">
+        <v>0.002597549984869582</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1342797775546874</v>
+        <v>0.1265288487228386</v>
       </c>
       <c r="C94">
-        <v>0.02813772333415409</v>
+        <v>-0.02621375854140725</v>
       </c>
       <c r="D94">
-        <v>0.03782291638424543</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04050042977616569</v>
+      </c>
+      <c r="E94">
+        <v>0.05769539678353321</v>
+      </c>
+      <c r="F94">
+        <v>0.03151074078461395</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1253054019420825</v>
+        <v>0.1285000088043898</v>
       </c>
       <c r="C95">
-        <v>0.01005343945008079</v>
+        <v>-0.004661411672741623</v>
       </c>
       <c r="D95">
-        <v>0.08564854777232649</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09710068557040669</v>
+      </c>
+      <c r="E95">
+        <v>0.05502257114796249</v>
+      </c>
+      <c r="F95">
+        <v>0.001922156206875773</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.125041213550474</v>
+        <v>0.1202784038003038</v>
       </c>
       <c r="C96">
-        <v>-0.9864873082055493</v>
+        <v>0.9859633955736619</v>
       </c>
       <c r="D96">
-        <v>-0.01636606568388401</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05094125402231527</v>
+      </c>
+      <c r="E96">
+        <v>0.05150089147724341</v>
+      </c>
+      <c r="F96">
+        <v>0.0421113410409848</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1958092340060306</v>
+        <v>0.1972689500547615</v>
       </c>
       <c r="C97">
-        <v>-0.003605314074206806</v>
+        <v>0.003843078340610834</v>
       </c>
       <c r="D97">
-        <v>-0.01993885918498258</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.02191550455836883</v>
+      </c>
+      <c r="E97">
+        <v>0.0243093587896858</v>
+      </c>
+      <c r="F97">
+        <v>-0.1205275473993133</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1990095102590771</v>
+        <v>0.2054562956415562</v>
       </c>
       <c r="C98">
-        <v>0.01218055876495375</v>
+        <v>-0.00849732678989836</v>
       </c>
       <c r="D98">
-        <v>0.01057514698503123</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01379201107601503</v>
+      </c>
+      <c r="E98">
+        <v>-0.07662620214998769</v>
+      </c>
+      <c r="F98">
+        <v>-0.09005405474415358</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05572246542453774</v>
+        <v>0.05541861852424212</v>
       </c>
       <c r="C99">
-        <v>-0.001591939381830979</v>
+        <v>0.00375414375918101</v>
       </c>
       <c r="D99">
-        <v>0.0299279523516429</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03883011064346061</v>
+      </c>
+      <c r="E99">
+        <v>0.02200854172371037</v>
+      </c>
+      <c r="F99">
+        <v>0.003149053235326191</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1458305919592841</v>
+        <v>0.1314783857221337</v>
       </c>
       <c r="C100">
-        <v>-0.03731693222417272</v>
+        <v>0.04997694732257742</v>
       </c>
       <c r="D100">
-        <v>0.4009750453932348</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3558644899498319</v>
+      </c>
+      <c r="E100">
+        <v>-0.8842940126424326</v>
+      </c>
+      <c r="F100">
+        <v>-0.1477133524820523</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02565982271277516</v>
+        <v>0.0286482404966133</v>
       </c>
       <c r="C101">
-        <v>0.009816729200253265</v>
+        <v>-0.00896996116993049</v>
       </c>
       <c r="D101">
-        <v>0.02780181028785434</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.02960588171975658</v>
+      </c>
+      <c r="E101">
+        <v>0.01227422682547234</v>
+      </c>
+      <c r="F101">
+        <v>-0.01501673989799636</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
